--- a/medicine/Mort/Estrapade/Estrapade.xlsx
+++ b/medicine/Mort/Estrapade/Estrapade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -520,7 +532,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Métathèse de storpiare (attesté 1300-1313 dans Dante, Enfer), probablement issu du bas latin exturpiare, comme disturpiare (attesté ds les Notes Tironiennes, v. TLL), dérivé de turpis « laid, difforme »
 </t>
@@ -551,7 +565,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://www.cnrtl.fr/definition/estrapade
 L'estrapade fut une sentence largement prononcée pendant l'Inquisition</t>
@@ -582,7 +598,9 @@
           <t>Artisanat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'estrapade est un outil utilisé en horlogerie pour enrouler un ressort en spirale et l'insérer dans le barillet d'une pendule ou d'une montre.</t>
         </is>
@@ -612,7 +630,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Exercice de souplesse des épaules, consistant à se suspendre par les mains à une corde ou une barre puis à faire passer tout le corps entre les deux bras écartés. Double, triple estrapade
 Rue de l'Estrapade est un film français réalisé par Jacques Becker, sorti en 1953.</t>
@@ -643,7 +663,9 @@
           <t>Odonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La place de l'Estrapade et la rue de l'Estrapade sont une place et une voie du 5e arrondissement de Paris ;
 La place de l'Estrapade est une place de Toulouse.
@@ -675,7 +697,9 @@
           <t>Litterature</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Freddy Joris, Mourir sur l’échafaud. Sensibilité collective face à la mort et perception des exécutions capitales du Bas Moyen Âge à la fin de l’Ancien Régime. Edtions du Céfal, Liège 2005  (ISBN 2-87130-205-7)
 Bée Michel, Le spectacle de l'exécution dans la France d'Ancien Régime. In: Annales. Économies, Sociétés, Civilisations. 38ᵉ année, N. 4, 1983. p. 843-862. www.persee.fr/doc/ahess_0395-2649_1983_num_38_4_410964</t>
